--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail13 Features.xlsx
@@ -3957,7 +3957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3968,29 +3968,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="17" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="17" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4011,115 +4009,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4136,72 +4124,66 @@
         <v>3.637700639063385e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.5131665203090774</v>
+        <v>2.181769541651968e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.138872369417218</v>
+        <v>6.851333648923069e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.181769541651968e-06</v>
+        <v>0.05146491628644369</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.851333648923069e-06</v>
+        <v>0.3505940351138196</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.05146491628644369</v>
+        <v>0.1252991220309622</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3505940351138196</v>
+        <v>1.930301073071451</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1252991220309622</v>
+        <v>2.264912428031419</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.950026764601553</v>
+        <v>4.657378330840299</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.264912428031419</v>
+        <v>7.431900302280728e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.657378330840299</v>
+        <v>701054995.6171043</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>7.431900302280728e-16</v>
+        <v>1.718945514791803e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>701054995.6171043</v>
+        <v>365.2616291083589</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.718945514791803e-07</v>
+        <v>0.0001744245339042413</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>365.2616291083589</v>
+        <v>11.76724144281362</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001744245339042413</v>
+        <v>1.228618052980348</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.76724144281362</v>
+        <v>0.02415221133259847</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.228618052980348</v>
+        <v>3.770551884246519</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02415221133259847</v>
+        <v>0.9587295751321975</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.770551884246519</v>
+        <v>1.016568754151675</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9587295751321975</v>
+        <v>161</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.016568754151675</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>161</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.717226400223011</v>
       </c>
     </row>
@@ -4216,72 +4198,66 @@
         <v>3.300191576084988e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.1371824348652284</v>
+        <v>1.535907439533266e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.8927026027441252</v>
+        <v>6.864270595547498e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.535907439533266e-06</v>
+        <v>0.02345484918812821</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.864270595547498e-06</v>
+        <v>0.2960551886330565</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.02345484918812821</v>
+        <v>0.08801051058722563</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2960551886330565</v>
+        <v>1.929554227500204</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.08801051058722563</v>
+        <v>2.479629286562617</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.951622699501674</v>
+        <v>5.777266501749484</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.479629286562617</v>
+        <v>4.979058842876043e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.777266501749484</v>
+        <v>1069355776.803925</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.979058842876043e-16</v>
+        <v>1.13009162711005e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1069355776.803925</v>
+        <v>569.3662217704768</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.13009162711005e-07</v>
+        <v>0.0001686176918344772</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>569.3662217704768</v>
+        <v>10.87035402606598</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001686176918344772</v>
+        <v>1.415918021470287</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.87035402606598</v>
+        <v>0.01992464154401372</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.415918021470287</v>
+        <v>4.208801263182209</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01992464154401372</v>
+        <v>0.958157880486453</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.208801263182209</v>
+        <v>0.9419779117443833</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.958157880486453</v>
+        <v>161</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.9419779117443833</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>161</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>3.709397665341142</v>
       </c>
     </row>
@@ -4296,72 +4272,66 @@
         <v>3.23294511032303e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2469458148636725</v>
+        <v>1.083066738316354e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.100831395645372</v>
+        <v>6.867557438467713e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.083066738316354e-06</v>
+        <v>-0.002448575002771055</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.867557438467713e-06</v>
+        <v>0.2269156115810338</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.002448575002771055</v>
+        <v>0.05136939974223127</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2269156115810338</v>
+        <v>1.92784386607525</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.05136939974223127</v>
+        <v>2.340381014439545</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.95040339685197</v>
+        <v>7.389867785735984</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.340381014439545</v>
+        <v>3.032663826598924e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>7.389867785735984</v>
+        <v>1678274037.140763</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.032663826598924e-16</v>
+        <v>7.180136961279669e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1678274037.140763</v>
+        <v>854.1812287505692</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.180136961279669e-08</v>
+        <v>0.0001147931071378229</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>854.1812287505692</v>
+        <v>11.1429293719202</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001147931071378229</v>
+        <v>1.269980710264976</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.1429293719202</v>
+        <v>0.01425327179720618</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.269980710264976</v>
+        <v>5.105462462680275</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01425327179720618</v>
+        <v>0.9578266325869125</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>5.105462462680275</v>
+        <v>0.9704573826936667</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9578266325869125</v>
+        <v>161</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.9704573826936667</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>161</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>5.91647840967029</v>
       </c>
     </row>
@@ -4376,72 +4346,66 @@
         <v>3.281110642673492e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.223293414059289</v>
+        <v>1.088590442704877e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.109665168207271</v>
+        <v>6.863167565254664e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.088590442704877e-06</v>
+        <v>-0.02329970246575597</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.863167565254664e-06</v>
+        <v>0.1544088741624918</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02329970246575597</v>
+        <v>0.0243102245557649</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1544088741624918</v>
+        <v>1.935288621848807</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0243102245557649</v>
+        <v>2.643543915921305</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.955862042219738</v>
+        <v>5.579461890612158</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.643543915921305</v>
+        <v>2.278301445224486e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.579461890612158</v>
+        <v>2213425890.338762</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.278301445224486e-16</v>
+        <v>5.45884339282777e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>2213425890.338762</v>
+        <v>1116.197786063968</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.45884339282777e-08</v>
+        <v>6.157687739896659e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1116.197786063968</v>
+        <v>12.71123929409332</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>6.157687739896659e-05</v>
+        <v>1.023756038943146</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>12.71123929409332</v>
+        <v>0.009949321182291771</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.023756038943146</v>
+        <v>6.116683484518198</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009949321182291771</v>
+        <v>0.9590242291712543</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>6.116683484518198</v>
+        <v>0.8846412229836993</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9590242291712543</v>
+        <v>161</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.8846412229836993</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>161</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>8.747299657047428</v>
       </c>
     </row>
@@ -4818,7 +4782,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.698138059301207</v>
+        <v>1.698156257488112</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.698505785858271</v>
@@ -4907,7 +4871,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.721284509471134</v>
+        <v>1.717732573398704</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.572795429742647</v>
@@ -4996,7 +4960,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.719187087341844</v>
+        <v>1.715384054454426</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.601371784563433</v>
@@ -5085,7 +5049,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.720603697993415</v>
+        <v>1.715691273794659</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.591469520069718</v>
@@ -5174,7 +5138,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.731489860650285</v>
+        <v>1.724723101159547</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.5443982572147</v>
@@ -5263,7 +5227,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.787881716523521</v>
+        <v>1.767146093131489</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.247290641897032</v>
@@ -5352,7 +5316,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.792469485321385</v>
+        <v>1.759637273784052</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.593176315972091</v>
@@ -5441,7 +5405,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.751869346840294</v>
+        <v>1.728263353627671</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.469973650417476</v>
@@ -5530,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.796647567536171</v>
+        <v>1.767439158631352</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.550041846998984</v>
@@ -5619,7 +5583,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.800614650685003</v>
+        <v>1.774275102954837</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.584818173754459</v>
@@ -5708,7 +5672,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.762102135794978</v>
+        <v>1.745403878506479</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.461843393565147</v>
@@ -5797,7 +5761,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.761917102094347</v>
+        <v>1.753040722344814</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.407593863246301</v>
@@ -5886,7 +5850,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.765431530081</v>
+        <v>1.758684908383435</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.457646985248569</v>
@@ -5975,7 +5939,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.762946416379358</v>
+        <v>1.759993420111177</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.351804524798024</v>
@@ -6064,7 +6028,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.766318312730916</v>
+        <v>1.759581819221797</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.429953743110141</v>
@@ -6153,7 +6117,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.764911193970909</v>
+        <v>1.750858731430922</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.390457445287551</v>
@@ -6242,7 +6206,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.764454060137628</v>
+        <v>1.750828659233263</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.441576510864484</v>
@@ -6331,7 +6295,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.769567185826267</v>
+        <v>1.754012373134242</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.403517289043272</v>
@@ -6420,7 +6384,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.769621656666509</v>
+        <v>1.759848985322929</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.38394580778927</v>
@@ -6509,7 +6473,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.782902034161751</v>
+        <v>1.765992462238338</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.443855172586085</v>
@@ -6598,7 +6562,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.787591396247926</v>
+        <v>1.770573912061994</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.428003943892843</v>
@@ -6687,7 +6651,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.822176000551765</v>
+        <v>1.797063858279388</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.284877631249851</v>
@@ -6776,7 +6740,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.82729898672926</v>
+        <v>1.802424538826058</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.40733393251849</v>
@@ -6865,7 +6829,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.829069580629646</v>
+        <v>1.805543009617555</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.311101962684154</v>
@@ -6954,7 +6918,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.823381982436983</v>
+        <v>1.804014518261907</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.356309248808481</v>
@@ -7043,7 +7007,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.873666376024985</v>
+        <v>1.848301205590273</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.114568250412725</v>
@@ -7132,7 +7096,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.818236750224793</v>
+        <v>1.801079200461463</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.683186492922079</v>
@@ -7221,7 +7185,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.818695351634212</v>
+        <v>1.801370019502115</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.64324136830709</v>
@@ -7310,7 +7274,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.811680974843413</v>
+        <v>1.7971084991368</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.54851970432231</v>
@@ -7399,7 +7363,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.806428625681489</v>
+        <v>1.792099307433615</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.591594094999098</v>
@@ -7488,7 +7452,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.808220204863552</v>
+        <v>1.799121354799598</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.595415701177763</v>
@@ -7577,7 +7541,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.805343220835136</v>
+        <v>1.797117687702397</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.482769948170922</v>
@@ -7666,7 +7630,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.796826222746428</v>
+        <v>1.792161979546107</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.50360216148962</v>
@@ -7755,7 +7719,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.789478177791177</v>
+        <v>1.784068855932827</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.596885632030276</v>
@@ -7844,7 +7808,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.789734734455676</v>
+        <v>1.788070379833581</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.605923092418257</v>
@@ -7933,7 +7897,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.784489112513092</v>
+        <v>1.784474280327074</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.511877709210195</v>
@@ -8022,7 +7986,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.782548773644087</v>
+        <v>1.780455109205931</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.543194320956473</v>
@@ -8111,7 +8075,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.79447369352619</v>
+        <v>1.788427586180027</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.542548404101211</v>
@@ -8200,7 +8164,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.79588763702915</v>
+        <v>1.785549626680572</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.456187412646412</v>
@@ -8289,7 +8253,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.796133214821585</v>
+        <v>1.785627558102141</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.484542147586442</v>
@@ -8378,7 +8342,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.796379247019354</v>
+        <v>1.785175722018377</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.416171572868119</v>
@@ -8467,7 +8431,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.843533865264232</v>
+        <v>1.821788731929623</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.017609661194932</v>
@@ -8556,7 +8520,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.847813335495031</v>
+        <v>1.823892379818426</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.540090367702852</v>
@@ -8645,7 +8609,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.847721759745123</v>
+        <v>1.82210657531384</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.909369872932483</v>
@@ -8734,7 +8698,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.82002288101213</v>
+        <v>1.792360326763594</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.696758787819378</v>
@@ -8823,7 +8787,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.804431210341413</v>
+        <v>1.7883040352416</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.675293066874042</v>
@@ -8912,7 +8876,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.80452407957943</v>
+        <v>1.78666328224066</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.564997215653723</v>
@@ -9001,7 +8965,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.811860068702977</v>
+        <v>1.79108808144876</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.765913860223712</v>
@@ -9090,7 +9054,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.807749115232178</v>
+        <v>1.785221323775325</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.775329287173162</v>
@@ -9376,7 +9340,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.700684093324611</v>
+        <v>1.699112866783252</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.581046427757323</v>
@@ -9465,7 +9429,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.704895407446976</v>
+        <v>1.701371667599933</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.010765334462322</v>
@@ -9554,7 +9518,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.678923397545498</v>
+        <v>1.678602518781207</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.607965935538685</v>
@@ -9643,7 +9607,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.666833070942039</v>
+        <v>1.663291856858151</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.139470776543605</v>
@@ -9732,7 +9696,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.662449222124833</v>
+        <v>1.652825151457205</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.297109237209552</v>
@@ -9821,7 +9785,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.647727768365024</v>
+        <v>1.642780515079564</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.890974355189913</v>
@@ -9910,7 +9874,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.643401885862803</v>
+        <v>1.637892804689309</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.019154890723526</v>
@@ -9999,7 +9963,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.637883745792605</v>
+        <v>1.633378416219661</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.033136685644293</v>
@@ -10088,7 +10052,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.639606954387729</v>
+        <v>1.633121848650619</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.179353894976048</v>
@@ -10177,7 +10141,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.640513859103992</v>
+        <v>1.62856490118728</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.083751479594532</v>
@@ -10266,7 +10230,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.635333779482277</v>
+        <v>1.622140270452953</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.898341171746082</v>
@@ -10355,7 +10319,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.624869243484869</v>
+        <v>1.618257608900948</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.177955572253347</v>
@@ -10444,7 +10408,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.616152583107283</v>
+        <v>1.614375053736462</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.091742332157546</v>
@@ -10533,7 +10497,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.607808993240076</v>
+        <v>1.601415770416401</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.126963995775212</v>
@@ -10622,7 +10586,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.604155595601819</v>
+        <v>1.601147631054612</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.987214197518115</v>
@@ -10711,7 +10675,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.594963898786152</v>
+        <v>1.598625146949881</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.101148964898838</v>
@@ -10800,7 +10764,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.586211052142159</v>
+        <v>1.59220533174309</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.325534588838476</v>
@@ -10889,7 +10853,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.579587019758067</v>
+        <v>1.58671748204142</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.256551764530806</v>
@@ -10978,7 +10942,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.584113990512219</v>
+        <v>1.597690216262261</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.445480082750409</v>
@@ -11067,7 +11031,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.592730997959784</v>
+        <v>1.602818557252874</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.287858350215645</v>
@@ -11156,7 +11120,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.601179988624275</v>
+        <v>1.610189905534055</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.328086279464746</v>
@@ -11245,7 +11209,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.60068971820577</v>
+        <v>1.609750865827767</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.867674460045612</v>
@@ -11334,7 +11298,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.595259328486967</v>
+        <v>1.602587662721126</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.034185084740062</v>
@@ -11423,7 +11387,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.59705536329999</v>
+        <v>1.60163678697995</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.904555835004675</v>
@@ -11512,7 +11476,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.606043877844493</v>
+        <v>1.61181943844591</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.996729271248389</v>
@@ -11601,7 +11565,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.616905065471108</v>
+        <v>1.618496153694214</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.0218730937449</v>
@@ -11690,7 +11654,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.61120600031852</v>
+        <v>1.612276121253904</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.933916038060945</v>
@@ -11779,7 +11743,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.604561706734536</v>
+        <v>1.603674000900341</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.971897482736291</v>
@@ -11868,7 +11832,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.607624758118595</v>
+        <v>1.606915721644175</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.934134402512889</v>
@@ -11957,7 +11921,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.612715689471952</v>
+        <v>1.61351455902474</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.768023916574639</v>
@@ -12046,7 +12010,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.62806257772887</v>
+        <v>1.625786482952339</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.886873578823037</v>
@@ -12135,7 +12099,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.628230477914828</v>
+        <v>1.6279723548868</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.915842579272113</v>
@@ -12224,7 +12188,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.643979526914963</v>
+        <v>1.634855510926336</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.907269294082465</v>
@@ -12313,7 +12277,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.645173661024194</v>
+        <v>1.634013302592316</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.824818728467784</v>
@@ -12402,7 +12366,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.647541563480589</v>
+        <v>1.637883493433332</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.922922245982069</v>
@@ -12491,7 +12455,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.647744117278681</v>
+        <v>1.641432551014014</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.050520163069889</v>
@@ -12580,7 +12544,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.639845558625921</v>
+        <v>1.636259311005622</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.959922193944653</v>
@@ -12669,7 +12633,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.655609313829928</v>
+        <v>1.650303200182065</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.937675904463755</v>
@@ -12758,7 +12722,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.649272428148868</v>
+        <v>1.64909246569121</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.400892477999962</v>
@@ -12847,7 +12811,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.651175027646486</v>
+        <v>1.652260834762095</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.366063239145509</v>
@@ -12936,7 +12900,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.64873191222086</v>
+        <v>1.647022943209315</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.96246514455872</v>
@@ -13025,7 +12989,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.657057977751875</v>
+        <v>1.651780824165427</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.945988373823866</v>
@@ -13114,7 +13078,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.669081937946608</v>
+        <v>1.665135728846513</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.438344936590467</v>
@@ -13203,7 +13167,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.666495446883467</v>
+        <v>1.66451995673552</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.298201237440218</v>
@@ -13292,7 +13256,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.662847488686563</v>
+        <v>1.661013973029449</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.354889086202406</v>
@@ -13381,7 +13345,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.662279631831939</v>
+        <v>1.663549287537097</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.170208428482566</v>
@@ -13470,7 +13434,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.671685556196982</v>
+        <v>1.669201941685797</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.280530614730573</v>
@@ -13559,7 +13523,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.652517321737597</v>
+        <v>1.65526994845738</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.333523809327131</v>
@@ -13648,7 +13612,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.63731161613333</v>
+        <v>1.638553145714943</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.442235802375442</v>
@@ -13934,7 +13898,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.659418524283015</v>
+        <v>1.676144619216652</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.736681884537643</v>
@@ -14023,7 +13987,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.669237595432541</v>
+        <v>1.68739407802091</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.796914307052968</v>
@@ -14112,7 +14076,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.665061615861663</v>
+        <v>1.684242312832996</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.642168590272547</v>
@@ -14201,7 +14165,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.657031518714295</v>
+        <v>1.675670969271064</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.521389301898502</v>
@@ -14290,7 +14254,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.652652698554637</v>
+        <v>1.668512813187964</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.609495747218762</v>
@@ -14379,7 +14343,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.660412575584354</v>
+        <v>1.674889300201329</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.789443098754049</v>
@@ -14468,7 +14432,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.661631980507084</v>
+        <v>1.669450149870386</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.169358935133912</v>
@@ -14557,7 +14521,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.64494894418396</v>
+        <v>1.655618148674858</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.956160828033116</v>
@@ -14646,7 +14610,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.641994016201265</v>
+        <v>1.651122011156273</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.659234738619693</v>
@@ -14735,7 +14699,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.617234812454641</v>
+        <v>1.637771487603848</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.791619536496223</v>
@@ -14824,7 +14788,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.607413264219014</v>
+        <v>1.624264520889413</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.835106633927025</v>
@@ -14913,7 +14877,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.603927520119588</v>
+        <v>1.619475712118744</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.49850710365656</v>
@@ -15002,7 +14966,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.635107194911997</v>
+        <v>1.646079968401277</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.584862010813009</v>
@@ -15091,7 +15055,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.624552418334174</v>
+        <v>1.635545923866613</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.788860267319488</v>
@@ -15180,7 +15144,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.613466468129031</v>
+        <v>1.620320788875738</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.630235366336381</v>
@@ -15269,7 +15233,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.607836471077279</v>
+        <v>1.621631726906891</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.844266040805526</v>
@@ -15358,7 +15322,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.584954184768008</v>
+        <v>1.600731466010873</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.768790267650644</v>
@@ -15447,7 +15411,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.556835909864194</v>
+        <v>1.56980119312244</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.711397414392758</v>
@@ -15536,7 +15500,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.562306502392161</v>
+        <v>1.576309173841126</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.485504530536294</v>
@@ -15625,7 +15589,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.554372722625617</v>
+        <v>1.570491570465999</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.610490664306469</v>
@@ -15714,7 +15678,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.554207322362004</v>
+        <v>1.56861400741246</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.613675073593019</v>
@@ -15803,7 +15767,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.564475823427735</v>
+        <v>1.579758762420041</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.406363067481982</v>
@@ -15892,7 +15856,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.564083498034135</v>
+        <v>1.575320633331865</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.627445943700333</v>
@@ -15981,7 +15945,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.593506280320822</v>
+        <v>1.604188534729284</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.324382610751307</v>
@@ -16070,7 +16034,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.588352668986236</v>
+        <v>1.598956550908081</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.747986465777623</v>
@@ -16159,7 +16123,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.591482515638581</v>
+        <v>1.605485664319015</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.781757385392264</v>
@@ -16248,7 +16212,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.5749437499826</v>
+        <v>1.588277096887761</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.754334136087631</v>
@@ -16337,7 +16301,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.572960703727728</v>
+        <v>1.588185204914253</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.56588427462417</v>
@@ -16426,7 +16390,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.573582358512707</v>
+        <v>1.59326672371342</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.736115170504311</v>
@@ -16515,7 +16479,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.5869545114798</v>
+        <v>1.605312407871871</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.684087154906791</v>
@@ -16604,7 +16568,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.586337778738413</v>
+        <v>1.607286494608877</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.797788879236417</v>
@@ -16693,7 +16657,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.618368309042006</v>
+        <v>1.635825985380592</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.728838903334198</v>
@@ -16782,7 +16746,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.61747342906926</v>
+        <v>1.627495097352172</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.914576422264593</v>
@@ -16871,7 +16835,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.619659586097277</v>
+        <v>1.628900006667158</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.836984564745733</v>
@@ -16960,7 +16924,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.623821761390133</v>
+        <v>1.63650042659655</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.817717080479257</v>
@@ -17049,7 +17013,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.609516451909348</v>
+        <v>1.626162428706991</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.662417312832876</v>
@@ -17138,7 +17102,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.618536525315466</v>
+        <v>1.634668615928189</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.9267493942554</v>
@@ -17227,7 +17191,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.621014611895549</v>
+        <v>1.63610173015648</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.624490759427855</v>
@@ -17316,7 +17280,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.587818247258987</v>
+        <v>1.602008570428739</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.820971438500214</v>
@@ -17405,7 +17369,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.572810603318605</v>
+        <v>1.591857942483694</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.742706100811189</v>
@@ -17494,7 +17458,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.586884368675115</v>
+        <v>1.605978036206734</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.569630767539254</v>
@@ -17583,7 +17547,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.606707519933598</v>
+        <v>1.625523331577651</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.84756750027001</v>
@@ -17672,7 +17636,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.608037540201982</v>
+        <v>1.623939622204319</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.9264916703322</v>
@@ -17761,7 +17725,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.602582041900266</v>
+        <v>1.61038156363532</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.934434076817634</v>
@@ -17850,7 +17814,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.577661760774235</v>
+        <v>1.591550433078351</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.719624478929613</v>
@@ -17939,7 +17903,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.562159927988676</v>
+        <v>1.576967410158235</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.825340789970153</v>
@@ -18028,7 +17992,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.556406681693888</v>
+        <v>1.569387977525225</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.908135153968259</v>
@@ -18117,7 +18081,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.566507745311893</v>
+        <v>1.591413771689605</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.963144133623073</v>
@@ -18206,7 +18170,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.5671935651989</v>
+        <v>1.588023648185335</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.766962927137182</v>
@@ -18492,7 +18456,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.816334455980484</v>
+        <v>1.787257873908531</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.763354730070682</v>
@@ -18581,7 +18545,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.830689111545591</v>
+        <v>1.79716700009306</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.455776405812283</v>
@@ -18670,7 +18634,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.826766945356983</v>
+        <v>1.794029446660095</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.774452740907661</v>
@@ -18759,7 +18723,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.826324040732452</v>
+        <v>1.793401079178796</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.560383978853356</v>
@@ -18848,7 +18812,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.815135693297145</v>
+        <v>1.786362814437419</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.137075466928864</v>
@@ -18937,7 +18901,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.811092607890746</v>
+        <v>1.775957414627185</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.982988742262858</v>
@@ -19026,7 +18990,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.803994365266457</v>
+        <v>1.768964669440964</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.513616910787343</v>
@@ -19115,7 +19079,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.783766642323475</v>
+        <v>1.750663355895235</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.645047829382811</v>
@@ -19204,7 +19168,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.79032166277336</v>
+        <v>1.757462846978378</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.574465720225622</v>
@@ -19293,7 +19257,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.786361492891196</v>
+        <v>1.749818431033093</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.673932926257089</v>
@@ -19382,7 +19346,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.764659660615394</v>
+        <v>1.731324036387573</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.478545830045542</v>
@@ -19471,7 +19435,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.773799483640589</v>
+        <v>1.737576110864441</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.659327540490615</v>
@@ -19560,7 +19524,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.778959489749102</v>
+        <v>1.741058413426347</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.130518661556576</v>
@@ -19649,7 +19613,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.7753854431032</v>
+        <v>1.737326029604663</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.625738854517969</v>
@@ -19738,7 +19702,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.772315248027198</v>
+        <v>1.739918908042796</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.613721189674713</v>
@@ -19827,7 +19791,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.780728281175534</v>
+        <v>1.751756998537168</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.21860519316009</v>
@@ -19916,7 +19880,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.775085381732455</v>
+        <v>1.751850371005</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.40298132547098</v>
@@ -20005,7 +19969,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.768104487463305</v>
+        <v>1.747946965657111</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.443426480314925</v>
@@ -20094,7 +20058,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.771332911486833</v>
+        <v>1.753398201569772</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.155760356852163</v>
@@ -20183,7 +20147,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.781814254887347</v>
+        <v>1.762609398540654</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.205296968601848</v>
@@ -20272,7 +20236,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.785892296759701</v>
+        <v>1.7677033511605</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.365527630813463</v>
@@ -20361,7 +20325,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.798456666321286</v>
+        <v>1.778240388288328</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.066467452764629</v>
@@ -20450,7 +20414,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.800520298754839</v>
+        <v>1.776203218853886</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.364383403212012</v>
@@ -20539,7 +20503,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.795909092704923</v>
+        <v>1.770180630979049</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.20151932410788</v>
@@ -20628,7 +20592,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.789276657124272</v>
+        <v>1.76676182605444</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.173502914511176</v>
@@ -20717,7 +20681,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.800563817763713</v>
+        <v>1.775949505248794</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.794563250750577</v>
@@ -20806,7 +20770,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.796762216873269</v>
+        <v>1.77506048860259</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.657122975141646</v>
@@ -20895,7 +20859,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.801458478500527</v>
+        <v>1.778509377634362</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.508240805715562</v>
@@ -20984,7 +20948,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.804135692942071</v>
+        <v>1.78436000044595</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.543334142108164</v>
@@ -21073,7 +21037,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.802665335027043</v>
+        <v>1.780802354967007</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.287203256273864</v>
@@ -21162,7 +21126,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.799663370569256</v>
+        <v>1.780101364974724</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.395633471528646</v>
@@ -21251,7 +21215,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.801046476119076</v>
+        <v>1.779117412385706</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.86128983108996</v>
@@ -21340,7 +21304,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.798195413719828</v>
+        <v>1.774443537114632</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.572310205945404</v>
@@ -21429,7 +21393,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.794194471671422</v>
+        <v>1.771036391881878</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.374322637746226</v>
@@ -21518,7 +21482,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.794490268136309</v>
+        <v>1.770104364984967</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.43479744144664</v>
@@ -21607,7 +21571,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.778895534300027</v>
+        <v>1.757575709644133</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.341768190927521</v>
@@ -21696,7 +21660,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.781146368542222</v>
+        <v>1.759642229369643</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.565704333493727</v>
@@ -21785,7 +21749,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.788053799742453</v>
+        <v>1.771115701028806</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.491653897904172</v>
@@ -21874,7 +21838,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.789564467374423</v>
+        <v>1.773172847671584</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.405225815528775</v>
@@ -21963,7 +21927,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.792959174412408</v>
+        <v>1.77262336530733</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.873759770149754</v>
@@ -22052,7 +22016,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.779626197802306</v>
+        <v>1.76250644629616</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.904648427987616</v>
@@ -22141,7 +22105,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.781998294815612</v>
+        <v>1.764485275975068</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.866380261518599</v>
@@ -22230,7 +22194,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.78730157994887</v>
+        <v>1.769140624630198</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.479638998195515</v>
@@ -22319,7 +22283,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.788652690446408</v>
+        <v>1.772598280546975</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.70790861281698</v>
@@ -22408,7 +22372,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.785389984677245</v>
+        <v>1.773565999354139</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.375901759576822</v>
@@ -22497,7 +22461,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.78364316562518</v>
+        <v>1.771953095371142</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.453483146113586</v>
@@ -22586,7 +22550,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.785606037034862</v>
+        <v>1.76631245923544</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.87553346785256</v>
@@ -22675,7 +22639,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.780524172654521</v>
+        <v>1.76202845093332</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.755769131418312</v>
@@ -22764,7 +22728,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.778195883371628</v>
+        <v>1.75975802861791</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.940924838565266</v>
@@ -23050,7 +23014,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.706714249784484</v>
+        <v>1.70821988631922</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.185815552297042</v>
@@ -23139,7 +23103,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.710568912335761</v>
+        <v>1.713529000117869</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.204939452789222</v>
@@ -23228,7 +23192,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.71335820467203</v>
+        <v>1.717045984788208</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.09287594629146</v>
@@ -23317,7 +23281,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.711245581099697</v>
+        <v>1.713970825312327</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.162120311768765</v>
@@ -23406,7 +23370,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.704695567968041</v>
+        <v>1.697628645234029</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.040492644506762</v>
@@ -23495,7 +23459,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.701960814972386</v>
+        <v>1.689104260485418</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.747231253480882</v>
@@ -23584,7 +23548,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.680715867775729</v>
+        <v>1.671583962473418</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.052955136864318</v>
@@ -23673,7 +23637,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.67100293059902</v>
+        <v>1.660970446712659</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.9357131200811</v>
@@ -23762,7 +23726,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.677800162103861</v>
+        <v>1.670386353645358</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.808218577269813</v>
@@ -23851,7 +23815,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.64425195284765</v>
+        <v>1.640115206774672</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.078092990749813</v>
@@ -23940,7 +23904,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.623361501487426</v>
+        <v>1.617667960456316</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.17035627942195</v>
@@ -24029,7 +23993,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.621712026571829</v>
+        <v>1.618754259967089</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.326347234212391</v>
@@ -24118,7 +24082,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.63111557409109</v>
+        <v>1.632515470834965</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.27315922891842</v>
@@ -24207,7 +24171,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.623968766033913</v>
+        <v>1.621374697310822</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.138021726827633</v>
@@ -24296,7 +24260,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.604356983884978</v>
+        <v>1.596077079950372</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.952205727870752</v>
@@ -24385,7 +24349,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.599383558113852</v>
+        <v>1.596334502164187</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.991628266567462</v>
@@ -24474,7 +24438,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.601539867169315</v>
+        <v>1.59564214792817</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.949763330959906</v>
@@ -24563,7 +24527,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.59327834961574</v>
+        <v>1.582341827974737</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.858505511135135</v>
@@ -24652,7 +24616,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.584139611294864</v>
+        <v>1.581812003401999</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.877722927737861</v>
@@ -24741,7 +24705,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.59419345925767</v>
+        <v>1.59478928955205</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.512876198105896</v>
@@ -24830,7 +24794,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.595312593315286</v>
+        <v>1.596901513190852</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.651894299995697</v>
@@ -24919,7 +24883,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.619882290324763</v>
+        <v>1.621255487385656</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.430019293286993</v>
@@ -25008,7 +24972,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.613832692279412</v>
+        <v>1.616298008167261</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.913310391676768</v>
@@ -25097,7 +25061,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.601753475839015</v>
+        <v>1.609583336358373</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.991978056517415</v>
@@ -25186,7 +25150,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.60508471255117</v>
+        <v>1.609780521141236</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.980008876683362</v>
@@ -25275,7 +25239,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.623378953831793</v>
+        <v>1.629687158739865</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.832068962378548</v>
@@ -25364,7 +25328,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.602188732926119</v>
+        <v>1.607149679925815</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.826240975895757</v>
@@ -25453,7 +25417,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.598208807565165</v>
+        <v>1.600471276813821</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.991891803023296</v>
@@ -25542,7 +25506,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.599288399908154</v>
+        <v>1.604310752983094</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.075500504267829</v>
@@ -25631,7 +25595,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.608859768157622</v>
+        <v>1.613362447402348</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.868415214911366</v>
@@ -25720,7 +25684,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.608970704997119</v>
+        <v>1.613140441227042</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.052554767424748</v>
@@ -25809,7 +25773,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.609759708203537</v>
+        <v>1.618069168891577</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.865142590776476</v>
@@ -25898,7 +25862,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.628306440924924</v>
+        <v>1.633705651195838</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.047833150637263</v>
@@ -25987,7 +25951,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.627193378926917</v>
+        <v>1.633128022529296</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.783576702383463</v>
@@ -26076,7 +26040,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.629342886973942</v>
+        <v>1.632503348732717</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.076697457673049</v>
@@ -26165,7 +26129,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.629831410488792</v>
+        <v>1.633340570864616</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.951837979993765</v>
@@ -26254,7 +26218,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.640630945230754</v>
+        <v>1.64261762204457</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.897572585560769</v>
@@ -26343,7 +26307,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.649246941876269</v>
+        <v>1.648591367489681</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.829753499277259</v>
@@ -26432,7 +26396,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.651221206386222</v>
+        <v>1.653059091424089</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.131856317192548</v>
@@ -26521,7 +26485,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.649684525543875</v>
+        <v>1.655572168433167</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.020861294993717</v>
@@ -26610,7 +26574,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.648500231934238</v>
+        <v>1.64813716064568</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.104354780096009</v>
@@ -26699,7 +26663,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.66139755934269</v>
+        <v>1.658695435272421</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.100113409311257</v>
@@ -26788,7 +26752,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.653981189674517</v>
+        <v>1.65349153078188</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.173167130138304</v>
@@ -26877,7 +26841,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.650629688368762</v>
+        <v>1.650288896331195</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.270603296241253</v>
@@ -26966,7 +26930,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.631036299255198</v>
+        <v>1.630400910267932</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.08602684644212</v>
@@ -27055,7 +27019,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.621079989547972</v>
+        <v>1.62215857568029</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.088264090670367</v>
@@ -27144,7 +27108,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.618543623648851</v>
+        <v>1.6212973191726</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.971115367112817</v>
@@ -27233,7 +27197,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.616542591849384</v>
+        <v>1.617042226777274</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.110256095796051</v>
@@ -27322,7 +27286,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.62098016100406</v>
+        <v>1.624267381815319</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.243463491537438</v>
@@ -27608,7 +27572,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.706573182718495</v>
+        <v>1.720825663441686</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.856568572473151</v>
@@ -27697,7 +27661,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.715850556869575</v>
+        <v>1.728837824422314</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.794401369664265</v>
@@ -27786,7 +27750,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.709800402363995</v>
+        <v>1.719985293616685</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.74412002228377</v>
@@ -27875,7 +27839,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.698706162535305</v>
+        <v>1.70496387421357</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.699256465898562</v>
@@ -27964,7 +27928,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.701319177284782</v>
+        <v>1.70589684011101</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.664917009307867</v>
@@ -28053,7 +28017,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.747697992418291</v>
+        <v>1.736097531025054</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.391106318492572</v>
@@ -28142,7 +28106,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.747578444564363</v>
+        <v>1.731667074631581</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.634751361213185</v>
@@ -28231,7 +28195,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.721889292964695</v>
+        <v>1.708371404051434</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.594895055797837</v>
@@ -28320,7 +28284,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.750542345959099</v>
+        <v>1.735543003477521</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.973207276838139</v>
@@ -28409,7 +28373,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.746364581061453</v>
+        <v>1.731319893434368</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.777318331561376</v>
@@ -28498,7 +28462,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.723226009471938</v>
+        <v>1.706967273553537</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.14154254382868</v>
@@ -28587,7 +28551,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.725490805621905</v>
+        <v>1.713404414368908</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.648816012219832</v>
@@ -28676,7 +28640,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.725712953120922</v>
+        <v>1.706150941925719</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.099894802012526</v>
@@ -28765,7 +28729,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.727117817887251</v>
+        <v>1.705451835333536</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.733084556400797</v>
@@ -28854,7 +28818,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.726473775750902</v>
+        <v>1.702379183498651</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.95645936847754</v>
@@ -28943,7 +28907,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.72846094832299</v>
+        <v>1.711767790777189</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.735484876565624</v>
@@ -29032,7 +28996,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.726512747944228</v>
+        <v>1.713355477874536</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.961864820146757</v>
@@ -29121,7 +29085,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.720531231204561</v>
+        <v>1.711411823551891</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.836260271961187</v>
@@ -29210,7 +29174,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.723322347809367</v>
+        <v>1.717801442448211</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.864883262266292</v>
@@ -29299,7 +29263,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.732670281841373</v>
+        <v>1.730542729893524</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.785026690917471</v>
@@ -29388,7 +29352,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.728866306978325</v>
+        <v>1.729434987567353</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.764654797842523</v>
@@ -29477,7 +29441,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.755624558739913</v>
+        <v>1.753332788688623</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.514529300577515</v>
@@ -29566,7 +29530,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.7629320226584</v>
+        <v>1.760205851879252</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.86272772857901</v>
@@ -29655,7 +29619,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.756071322965812</v>
+        <v>1.753873481066199</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.661956445677125</v>
@@ -29744,7 +29708,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.750940971742103</v>
+        <v>1.754325088165374</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.769120096811268</v>
@@ -29833,7 +29797,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.772562840140213</v>
+        <v>1.776083377331428</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.943807343459595</v>
@@ -29922,7 +29886,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.74569073055237</v>
+        <v>1.753033325825938</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.960461144575215</v>
@@ -30011,7 +29975,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.745977076554845</v>
+        <v>1.758234915277553</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.950932444135888</v>
@@ -30100,7 +30064,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.73602439540103</v>
+        <v>1.755612207001883</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.842970940067409</v>
@@ -30189,7 +30153,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.737810852591089</v>
+        <v>1.762701090512644</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.881696657176621</v>
@@ -30278,7 +30242,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.738431041578234</v>
+        <v>1.757456269073786</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.06314811549963</v>
@@ -30367,7 +30331,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.741827509986754</v>
+        <v>1.762160374168068</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.827291786408256</v>
@@ -30456,7 +30420,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.740558833122522</v>
+        <v>1.762350084097053</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.883777772874642</v>
@@ -30545,7 +30509,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.736588408310646</v>
+        <v>1.758289433128537</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.167985662619401</v>
@@ -30634,7 +30598,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.738326384126081</v>
+        <v>1.758367875636507</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.685145067146131</v>
@@ -30723,7 +30687,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.739831062025232</v>
+        <v>1.761681868806549</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.039398310506404</v>
@@ -30812,7 +30776,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.739213234186416</v>
+        <v>1.762166644452417</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.759990618087647</v>
@@ -30901,7 +30865,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.747099512193357</v>
+        <v>1.772837388330951</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.868875438664894</v>
@@ -30990,7 +30954,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.748209301795058</v>
+        <v>1.772608729794475</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.66521487521061</v>
@@ -31079,7 +31043,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.752797730360441</v>
+        <v>1.772382197961682</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.655137041853019</v>
@@ -31168,7 +31132,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.755254718547828</v>
+        <v>1.773827054412094</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.611380733164645</v>
@@ -31257,7 +31221,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.785572643059087</v>
+        <v>1.802032720270931</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.354868974068989</v>
@@ -31346,7 +31310,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.783295026483493</v>
+        <v>1.800240593192634</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.770572148635922</v>
@@ -31435,7 +31399,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.790832137640408</v>
+        <v>1.804188590863566</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.289100460010546</v>
@@ -31524,7 +31488,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.778495119074055</v>
+        <v>1.784800613452948</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.028120402675309</v>
@@ -31613,7 +31577,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.769934467188489</v>
+        <v>1.782057221034937</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.970427690779386</v>
@@ -31702,7 +31666,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.754921776554285</v>
+        <v>1.768131731470753</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.938296737843087</v>
@@ -31791,7 +31755,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.756337688338515</v>
+        <v>1.768590932679758</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.224292834288714</v>
@@ -31880,7 +31844,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.759057390015891</v>
+        <v>1.767746890126428</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.85554300107237</v>
